--- a/SourceCode/2023/Sep2023/Basics/Saradha/Task3/DateTime.xlsx
+++ b/SourceCode/2023/Sep2023/Basics/Saradha/Task3/DateTime.xlsx
@@ -14,9 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <x:si>
-    <x:t>09/11/2023 06:26:19</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <x:si>
+    <x:t>09/13/2023 22:18:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wednesday, 13 September 2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22:18:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09/13/2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22:18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wednesday</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -378,6 +405,56 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1">
+      <x:c r="A3" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1">
+      <x:c r="A4" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1">
+      <x:c r="A6" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1">
+      <x:c r="A7" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1">
+      <x:c r="A8" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1">
+      <x:c r="A9" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:1">
+      <x:c r="A10" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:1">
+      <x:c r="A11" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
